--- a/excel_test/back/myworkbook.xlsx
+++ b/excel_test/back/myworkbook.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="1"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="my sheet" sheetId="2" r:id="rId2"/>
     <sheet name="my sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="my sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="my_sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Copy" sheetId="5" r:id="rId5"/>
+    <sheet name="Copy2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="test_ref" localSheetId="1">'my sheet'!$A$2:$A$3</definedName>
@@ -19,39 +21,184 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="test_ref" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\Users\OK\source\repos\Repository4_python\excel_test\test_ref2.csv" delimited="0">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="59">
   <si>
     <t>■textファイル参照テスト</t>
-    <rPh sb="9" eb="11">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
   <si>
     <t>■CSVファイル参照テスト</t>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>*参照テスト</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>■テスト表</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>分類1</t>
+  </si>
+  <si>
+    <t>分類2</t>
+  </si>
+  <si>
+    <t>分類3</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>数値1</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>カテゴリ1</t>
+  </si>
+  <si>
+    <t>作成</t>
+  </si>
+  <si>
+    <t>作成A</t>
+  </si>
+  <si>
+    <t>作成B</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>見積もり</t>
+  </si>
+  <si>
+    <t>見積もりA</t>
+  </si>
+  <si>
+    <t>見積もりB</t>
+  </si>
+  <si>
+    <t>見積もりC</t>
+  </si>
+  <si>
+    <t>カテゴリA</t>
+  </si>
+  <si>
+    <t>カテゴリB</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>備考2</t>
+  </si>
+  <si>
+    <t>対応不可</t>
+  </si>
+  <si>
+    <t>対応不可備考1</t>
+  </si>
+  <si>
+    <t>bikou2</t>
+  </si>
+  <si>
+    <t>対応不可備考2</t>
+  </si>
+  <si>
+    <t>統合セルテスト</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>A013</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>A021</t>
+  </si>
+  <si>
+    <t>合計件数</t>
+  </si>
+  <si>
+    <t>※コピー用</t>
+  </si>
+  <si>
+    <t>行番号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -59,7 +206,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日(&quot;aaa&quot;)&quot;"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +225,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -91,11 +262,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -106,12 +384,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル14" displayName="テーブル14" ref="T7:W28" totalsRowShown="0">
+  <autoFilter ref="T7:W28"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="ID"/>
+    <tableColumn id="3" name="備考"/>
+    <tableColumn id="4" name="Result"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_ref" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル143" displayName="テーブル143" ref="T7:W28" totalsRowShown="0">
+  <autoFilter ref="T7:W28"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="ID"/>
+    <tableColumn id="3" name="備考"/>
+    <tableColumn id="4" name="Result"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,13 +696,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>100</v>
       </c>
@@ -416,8 +714,12 @@
       <c r="C1">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1">
+        <f>SUM(A1:C1)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>4</v>
       </c>
@@ -427,8 +729,12 @@
       <c r="C2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2">
+        <f>SUM(A2:C2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>100</v>
       </c>
@@ -438,8 +744,12 @@
       <c r="C3">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3">
+        <f>SUM(A3:C3)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -448,6 +758,10 @@
       </c>
       <c r="C4">
         <v>6</v>
+      </c>
+      <c r="F4">
+        <f>SUM(A4:C4)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -461,13 +775,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -475,15 +789,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,22 +808,169 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
-  <controls>
-    <control shapeId="1025" r:id="rId2" name="UpdateDataSource"/>
-  </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="B6:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.75" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -518,13 +979,2013 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
+  <dimension ref="B7:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="9.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:6">
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45253</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45253</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45619</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45306</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45306</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45307</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45308</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45309</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="5">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45310</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45309</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(C8:C19,B21)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(D8:D19,B21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1">
+        <v>45619</v>
+      </c>
+      <c r="C22" s="18">
+        <f>COUNTIF(C8:C19,B22)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(D8:D19,B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:W32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:23">
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="J2" s="2">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="I3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5">
+        <f>COUNTIF($J$8:$J$28,I3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="I4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="5">
+        <f>COUNTIF($J$8:$J$28,I4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="I5" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="5">
+        <f>COUNTIF($J$8:$J$28,I5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="O16">
+        <v>9</v>
+      </c>
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="9">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="9">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18">
+        <v>11</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="9">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="O19">
+        <v>12</v>
+      </c>
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19">
+        <v>12</v>
+      </c>
+      <c r="U19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="9">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="O20">
+        <v>13</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20">
+        <v>13</v>
+      </c>
+      <c r="U20" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="9">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="O21">
+        <v>14</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="9">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="O23">
+        <v>16</v>
+      </c>
+      <c r="P23" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T23">
+        <v>16</v>
+      </c>
+      <c r="U23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="9">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="O24">
+        <v>17</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24">
+        <v>17</v>
+      </c>
+      <c r="U24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="9">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="O25">
+        <v>18</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25" t="s">
+        <v>52</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="9">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="O26">
+        <v>19</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26">
+        <v>19</v>
+      </c>
+      <c r="U26" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="9">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="O27">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="11">
+        <v>21</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="O28">
+        <v>21</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28">
+        <v>21</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <f>COUNTA(C8:C28)</f>
+        <v>21</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <f>COUNTIF($E$8:$E$28,D30)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="D31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIF($E$8:$E$28,D31)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="D32" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF($E$8:$E$28,D32)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:W32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="5" width="9" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23">
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="I3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5">
+        <f>COUNTIF($J$8:$J$28,I3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f>COUNTIF($J$8:$J$28,K3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="I4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="5">
+        <f>COUNTIF($J$8:$J$28,I4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <f>COUNTIF($J$8:$J$28,K4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="I5" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="5">
+        <f>COUNTIF($J$8:$J$28,I5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <f>COUNTIF($J$8:$J$28,K5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="J6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="9">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="9">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="T18">
+        <v>11</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="9">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="T19">
+        <v>12</v>
+      </c>
+      <c r="U19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="9">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="T20">
+        <v>13</v>
+      </c>
+      <c r="U20" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="9">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="9">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="T23">
+        <v>16</v>
+      </c>
+      <c r="U23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="9">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="T24">
+        <v>17</v>
+      </c>
+      <c r="U24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="9">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25" t="s">
+        <v>52</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="9">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="T26">
+        <v>19</v>
+      </c>
+      <c r="U26" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="9">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="11">
+        <v>21</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="T28">
+        <v>21</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <f>COUNTA(C8:C28)</f>
+        <v>21</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <f>COUNTIF($E$8:$E$28,D30)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="D31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIF($E$8:$E$28,D31)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="D32" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF($E$8:$E$28,D32)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/excel_test/back/myworkbook.xlsx
+++ b/excel_test/back/myworkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="3"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="60">
   <si>
     <t>■textファイル参照テスト</t>
   </si>
@@ -87,6 +87,9 @@
     <t>見積もりC</t>
   </si>
   <si>
+    <t>行番号</t>
+  </si>
+  <si>
     <t>カテゴリA</t>
   </si>
   <si>
@@ -198,8 +201,7 @@
     <t>※コピー用</t>
   </si>
   <si>
-    <t>行番号</t>
-    <phoneticPr fontId="1"/>
+    <t>###</t>
   </si>
 </sst>
 </file>
@@ -349,13 +351,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -367,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -386,19 +387,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル14" displayName="テーブル14" ref="T7:W28" totalsRowShown="0">
-  <autoFilter ref="T7:W28"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="No"/>
-    <tableColumn id="2" name="ID"/>
-    <tableColumn id="3" name="備考"/>
-    <tableColumn id="4" name="Result"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル143" displayName="テーブル143" ref="T7:W28" totalsRowShown="0">
   <autoFilter ref="T7:W28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="No"/>
@@ -767,6 +755,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -781,7 +770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -822,7 +811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:7">
@@ -851,7 +840,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>45311</v>
       </c>
       <c r="C8" t="s">
@@ -871,7 +860,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>45311</v>
       </c>
       <c r="C9" t="s">
@@ -891,7 +880,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>45311</v>
       </c>
       <c r="C10" t="s">
@@ -911,7 +900,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>45311</v>
       </c>
       <c r="C11" t="s">
@@ -931,7 +920,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>45311</v>
       </c>
       <c r="C12" t="s">
@@ -951,7 +940,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>45311</v>
       </c>
       <c r="C13" t="s">
@@ -979,37 +968,37 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B7:F22"/>
+  <dimension ref="B7:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="4" width="9.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:6">
-      <c r="B7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
       <c r="C8" s="2">
@@ -1018,79 +1007,79 @@
       <c r="D8" s="2">
         <v>45253</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="5">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5">
+      <c r="B11" s="14">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5">
+      <c r="B12" s="14">
         <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>45619</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="5">
+      <c r="B13" s="14">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5">
+      <c r="B14" s="14">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5">
+      <c r="B15" s="14">
         <v>8</v>
       </c>
       <c r="C15" s="2">
@@ -1099,22 +1088,22 @@
       <c r="D15" s="2">
         <v>45306</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5">
+      <c r="B16" s="14">
         <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>45307</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5">
+      <c r="B17" s="14">
         <v>10</v>
       </c>
       <c r="C17" s="2">
@@ -1123,11 +1112,11 @@
       <c r="D17" s="2">
         <v>45307</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5">
+      <c r="B18" s="14">
         <v>11</v>
       </c>
       <c r="C18" s="2">
@@ -1136,11 +1125,11 @@
       <c r="D18" s="2">
         <v>45308</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5">
+      <c r="B19" s="14">
         <v>12</v>
       </c>
       <c r="C19" s="2">
@@ -1149,32 +1138,240 @@
       <c r="D19" s="2">
         <v>45309</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="14">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45311</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45310</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" t="s">
+      <c r="B21" s="14">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45312</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45311</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="14">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45313</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45312</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="14">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45314</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45313</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="14">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45315</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45314</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="14">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45308</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="14">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45309</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="14">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45310</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45309</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="14">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45311</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45310</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="14">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45320</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45319</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="14">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45321</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45320</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="14">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45322</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="14">
         <v>25</v>
       </c>
-      <c r="C21">
-        <f>COUNTIF(C8:C19,B21)</f>
+      <c r="C32" s="2">
+        <v>45323</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45322</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="14">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45324</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="14">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45325</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45324</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="14">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45326</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45325</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIF(C8:C19,B37)</f>
         <v>1</v>
       </c>
-      <c r="D21">
-        <f>COUNTIF(D8:D19,B21)</f>
+      <c r="D37">
+        <f>COUNTIF(D8:D19,B37)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1">
+    <row r="38" spans="2:6">
+      <c r="B38" s="1">
         <v>45619</v>
       </c>
-      <c r="C22" s="18">
-        <f>COUNTIF(C8:C19,B22)</f>
+      <c r="C38" s="17">
+        <f>COUNTIF(C8:C19,B38)</f>
         <v>1</v>
       </c>
-      <c r="D22">
-        <f>COUNTIF(D8:D19,B22)</f>
+      <c r="D38">
+        <f>COUNTIF(D8:D19,B38)</f>
         <v>0</v>
       </c>
     </row>
@@ -1195,449 +1392,449 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="20"/>
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="19"/>
       <c r="J2" s="2">
         <v>45318</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="I3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="14">
         <f>COUNTIF($J$8:$J$28,I3)</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:23">
-      <c r="I4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="14">
         <f>COUNTIF($J$8:$J$28,I4)</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:23">
-      <c r="I5" s="14" t="e">
+      <c r="I5" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="14">
         <f>COUNTIF($J$8:$J$28,I5)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="J6" s="5"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="2:23">
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="P7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="U7" t="s">
         <v>34</v>
       </c>
-      <c r="T7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" t="s">
-        <v>33</v>
-      </c>
       <c r="V7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:23">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="14"/>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:23">
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="14"/>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:23">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="14"/>
       <c r="O11">
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11">
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:23">
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="14"/>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T12">
         <v>5</v>
       </c>
       <c r="U12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="14"/>
       <c r="O13">
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
       <c r="U13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="14"/>
       <c r="O14">
         <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T14">
         <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:23">
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="14"/>
       <c r="O15">
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15">
         <v>8</v>
       </c>
       <c r="U15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="E16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="14"/>
       <c r="O16">
         <v>9</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16">
         <v>9</v>
       </c>
       <c r="U16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:23">
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="10" t="e">
+      <c r="E17" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="5" t="e">
+      <c r="I17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="14"/>
       <c r="O17">
         <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R17" t="e">
         <v>#N/A</v>
@@ -1646,183 +1843,183 @@
         <v>10</v>
       </c>
       <c r="U17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W17" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="E18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="14"/>
       <c r="O18">
         <v>11</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T18">
         <v>11</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="5"/>
+      <c r="E19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="14"/>
       <c r="O19">
         <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T19">
         <v>12</v>
       </c>
       <c r="U19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="5"/>
+      <c r="E20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="14"/>
       <c r="O20">
         <v>13</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T20">
         <v>13</v>
       </c>
       <c r="U20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="5"/>
+      <c r="E21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="14"/>
       <c r="O21">
         <v>14</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T21">
         <v>14</v>
       </c>
       <c r="U21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="10" t="e">
+      <c r="E22" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="5" t="e">
+      <c r="I22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="14"/>
       <c r="O22">
         <v>15</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R22" t="e">
         <v>#N/A</v>
@@ -1831,35 +2028,35 @@
         <v>15</v>
       </c>
       <c r="U22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W22" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="10" t="e">
+      <c r="E23" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="5" t="e">
+      <c r="I23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="14"/>
       <c r="O23">
         <v>16</v>
       </c>
       <c r="P23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R23" t="e">
         <v>#N/A</v>
@@ -1868,207 +2065,207 @@
         <v>16</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W23" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="5"/>
+      <c r="E24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="14"/>
       <c r="O24">
         <v>17</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T24">
         <v>17</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:23">
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="5"/>
+      <c r="E25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="14"/>
       <c r="O25">
         <v>18</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25">
         <v>18</v>
       </c>
       <c r="U25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="14"/>
       <c r="O26">
         <v>19</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T26">
         <v>19</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:23">
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="C27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="14"/>
       <c r="O27">
         <v>20</v>
       </c>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27">
         <v>20</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:23">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="5"/>
+      <c r="C28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="14"/>
       <c r="O28">
         <v>21</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28">
         <v>21</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:23">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <f>COUNTA(C8:C28)</f>
         <v>21</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>30</v>
+      <c r="D30" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E30">
         <f>COUNTIF($E$8:$E$28,D30)</f>
@@ -2076,8 +2273,8 @@
       </c>
     </row>
     <row r="31" spans="2:23">
-      <c r="D31" s="14" t="s">
-        <v>31</v>
+      <c r="D31" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E31">
         <f>COUNTIF($E$8:$E$28,D31)</f>
@@ -2085,7 +2282,7 @@
       </c>
     </row>
     <row r="32" spans="2:23">
-      <c r="D32" s="14" t="e">
+      <c r="D32" s="13" t="e">
         <v>#N/A</v>
       </c>
       <c r="E32">
@@ -2107,870 +2304,796 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:W32"/>
+  <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="9" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="21" width="9" style="15" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="20"/>
+    <row r="2" spans="2:21">
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="19"/>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2">
         <v>45318</v>
       </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="N2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="I3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="14">
         <f>COUNTIF($J$8:$J$28,I3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="14">
         <f>COUNTIF($J$8:$J$28,K3)</f>
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="14">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="14">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="14">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14">
         <v>0</v>
       </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="I4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5">
+    </row>
+    <row r="4" spans="2:21">
+      <c r="I4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="14">
         <f>COUNTIF($J$8:$J$28,I4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="14">
         <f>COUNTIF($J$8:$J$28,K4)</f>
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="14">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="14">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="14">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14">
         <v>0</v>
       </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="I5" s="14" t="e">
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="I5" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="14">
         <f>COUNTIF($J$8:$J$28,I5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="14">
         <f>COUNTIF($J$8:$J$28,K5)</f>
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="14">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="14">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14">
         <v>0</v>
       </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="J6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="J6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23">
-      <c r="B8" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="T8">
-        <v>1</v>
-      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
       <c r="U8" t="s">
-        <v>35</v>
-      </c>
-      <c r="W8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23">
-      <c r="B9" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="T9">
-        <v>2</v>
-      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
       <c r="U9" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23">
-      <c r="B10" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="8">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="T10">
-        <v>3</v>
-      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
       <c r="U10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23">
-      <c r="B11" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="T11">
-        <v>4</v>
-      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
       <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23">
-      <c r="B12" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="8">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="T12">
-        <v>5</v>
-      </c>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
       <c r="U12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="B13" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="T13">
-        <v>6</v>
-      </c>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
       <c r="U13" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23">
-      <c r="B14" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="8">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="T14">
-        <v>7</v>
-      </c>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
       <c r="U14" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23">
-      <c r="B15" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="8">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="T15">
-        <v>8</v>
-      </c>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
       <c r="U15" t="s">
-        <v>42</v>
-      </c>
-      <c r="W15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23">
-      <c r="B16" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="8">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="T16">
-        <v>9</v>
-      </c>
+      <c r="E16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
       <c r="U16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23">
-      <c r="B17" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="8">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="10" t="e">
+      <c r="E17" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="e">
+      <c r="I17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="T17">
-        <v>10</v>
-      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
       <c r="U17" t="s">
-        <v>44</v>
-      </c>
-      <c r="W17" t="e">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="8">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="8">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="8">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="8">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="2:23">
-      <c r="B18" s="9">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="T18">
-        <v>11</v>
-      </c>
-      <c r="U18" t="s">
-        <v>45</v>
-      </c>
-      <c r="W18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23">
-      <c r="B19" s="9">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="T19">
-        <v>12</v>
-      </c>
-      <c r="U19" t="s">
-        <v>46</v>
-      </c>
-      <c r="W19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23">
-      <c r="B20" s="9">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="T20">
-        <v>13</v>
-      </c>
-      <c r="U20" t="s">
-        <v>47</v>
-      </c>
-      <c r="W20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23">
-      <c r="B21" s="9">
-        <v>14</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="T21">
-        <v>14</v>
-      </c>
-      <c r="U21" t="s">
-        <v>48</v>
-      </c>
-      <c r="W21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23">
-      <c r="B22" s="9">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10" t="e">
+      <c r="I22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="e">
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="8">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="T22">
-        <v>15</v>
-      </c>
-      <c r="U22" t="s">
-        <v>49</v>
-      </c>
-      <c r="W22" t="e">
+      <c r="I23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="2:23">
-      <c r="B23" s="9">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="T23">
-        <v>16</v>
-      </c>
-      <c r="U23" t="s">
-        <v>50</v>
-      </c>
-      <c r="W23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23">
-      <c r="B24" s="9">
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="8">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="T24">
-        <v>17</v>
-      </c>
-      <c r="U24" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23">
-      <c r="B25" s="9">
+      <c r="E24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="8">
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="T25">
-        <v>18</v>
-      </c>
-      <c r="U25" t="s">
-        <v>52</v>
-      </c>
-      <c r="W25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23">
-      <c r="B26" s="9">
+      <c r="E25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="8">
         <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="T26">
-        <v>19</v>
-      </c>
-      <c r="U26" t="s">
-        <v>53</v>
-      </c>
-      <c r="W26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23">
-      <c r="B27" s="9">
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="T27">
-        <v>20</v>
-      </c>
-      <c r="U27" t="s">
-        <v>54</v>
-      </c>
-      <c r="W27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23">
-      <c r="B28" s="11">
+      <c r="C27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="10">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="T28">
-        <v>21</v>
-      </c>
-      <c r="U28" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="C28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <f>COUNTA(C8:C28)</f>
         <v>21</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>30</v>
+      <c r="D30" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E30">
         <f>COUNTIF($E$8:$E$28,D30)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
-      <c r="D31" s="14" t="s">
-        <v>31</v>
+    <row r="31" spans="2:21">
+      <c r="D31" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E31">
         <f>COUNTIF($E$8:$E$28,D31)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:23">
-      <c r="D32" s="14" t="e">
+    <row r="32" spans="2:21">
+      <c r="D32" s="13" t="e">
         <v>#N/A</v>
       </c>
       <c r="E32">
@@ -2984,8 +3107,5 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/excel_test/back/myworkbook.xlsx
+++ b/excel_test/back/myworkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="5"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,54 @@
     <sheet name="my_sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Copy" sheetId="5" r:id="rId5"/>
     <sheet name="Copy2" sheetId="6" r:id="rId6"/>
+    <sheet name="input_data" sheetId="7" r:id="rId7"/>
+    <sheet name="TestData" sheetId="8" r:id="rId8"/>
+    <sheet name="DailyTest" sheetId="9" r:id="rId9"/>
+    <sheet name="ref_csv" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">input_data!$B$3:$D$3</definedName>
+    <definedName name="data_from_df" localSheetId="9">ref_csv!$K$7:$P$20</definedName>
     <definedName name="test_ref" localSheetId="1">'my sheet'!$A$2:$A$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="data_from_df" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="1250" sourceFile="C:\Users\OK\source\repos\Repository4_python\excel_test\data_from_df.csv" tab="0" comma="1">
+      <textFields count="6">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="110">
+  <si>
+    <t>N4-O6</t>
+  </si>
+  <si>
+    <t>excel_test6_caution</t>
+  </si>
+  <si>
+    <t>参照テスト</t>
+  </si>
+  <si>
+    <t>参照テスト2</t>
+  </si>
+  <si>
+    <t>参照テスト3</t>
+  </si>
   <si>
     <t>■textファイル参照テスト</t>
   </si>
@@ -202,6 +240,145 @@
   </si>
   <si>
     <t>###</t>
+  </si>
+  <si>
+    <t>PasteTable</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>01_A001</t>
+  </si>
+  <si>
+    <t>01_A002</t>
+  </si>
+  <si>
+    <t>01_A003</t>
+  </si>
+  <si>
+    <t>01_A004</t>
+  </si>
+  <si>
+    <t>01_A005</t>
+  </si>
+  <si>
+    <t>02_A006</t>
+  </si>
+  <si>
+    <t>02_A007</t>
+  </si>
+  <si>
+    <t>03_A015</t>
+  </si>
+  <si>
+    <t>03_A016</t>
+  </si>
+  <si>
+    <t>03_A017</t>
+  </si>
+  <si>
+    <t>04_A012</t>
+  </si>
+  <si>
+    <t>04_A013</t>
+  </si>
+  <si>
+    <t>04_A014</t>
+  </si>
+  <si>
+    <t>05_A008</t>
+  </si>
+  <si>
+    <t>05_A009</t>
+  </si>
+  <si>
+    <t>05_A010</t>
+  </si>
+  <si>
+    <t>05_A011</t>
+  </si>
+  <si>
+    <t>■TestData</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>Result2</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
+  <si>
+    <t>RandRet</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>■TableA</t>
+  </si>
+  <si>
+    <t>■TableB</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>カテゴリ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■テスト表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ref_csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -351,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -372,6 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,6 +561,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_from_df" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,15 +866,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="A1">
         <v>100</v>
       </c>
@@ -707,7 +889,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -722,7 +904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>100</v>
       </c>
@@ -737,7 +919,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -751,10 +933,362 @@
         <f>SUM(A4:C4)</f>
         <v>15</v>
       </c>
+      <c r="N4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="N15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15">
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N4:O6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="K6:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="8.25" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="11:16">
+      <c r="K6" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="11:16">
+      <c r="L7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="11:16">
+      <c r="K8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="11:16">
+      <c r="K9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="11:16">
+      <c r="K10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="11:16">
+      <c r="K11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="11:16">
+      <c r="K12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="11:16">
+      <c r="K13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="11:16">
+      <c r="K14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="11:16">
+      <c r="K15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="11:16">
+      <c r="K16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="11:16">
+      <c r="K17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="11:16">
+      <c r="K18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="11:16">
+      <c r="K19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="11:16">
+      <c r="K20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -765,7 +1299,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -775,18 +1309,18 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -806,7 +1340,7 @@
   <dimension ref="B6:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G13"/>
+      <selection activeCell="B6" sqref="B6:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -816,27 +1350,27 @@
   <sheetData>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -844,16 +1378,16 @@
         <v>45311</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>0.25</v>
@@ -864,16 +1398,16 @@
         <v>45311</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -884,16 +1418,16 @@
         <v>45311</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -904,16 +1438,16 @@
         <v>45311</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>1.25</v>
@@ -924,16 +1458,16 @@
         <v>45311</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -944,16 +1478,16 @@
         <v>45311</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -982,19 +1516,19 @@
   <sheetData>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1015,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F9" s="14"/>
     </row>
@@ -1042,7 +1576,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1071,10 +1605,10 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F14" s="14"/>
     </row>
@@ -1351,7 +1885,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <f>COUNTIF(C8:C19,B37)</f>
@@ -1383,6 +1917,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1392,19 +1927,19 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="D2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="19"/>
+      <c r="D2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="20"/>
       <c r="J2" s="2">
         <v>45318</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="I3" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J3" s="14">
         <f>COUNTIF($J$8:$J$28,I3)</f>
@@ -1413,7 +1948,7 @@
     </row>
     <row r="4" spans="2:23">
       <c r="I4" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J4" s="14">
         <f>COUNTIF($J$8:$J$28,I4)</f>
@@ -1434,49 +1969,49 @@
     </row>
     <row r="7" spans="2:23">
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -1484,36 +2019,36 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K8" s="14"/>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:23">
@@ -1521,36 +2056,36 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K9" s="14"/>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="W9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:23">
@@ -1558,36 +2093,36 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K10" s="14"/>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:23">
@@ -1595,36 +2130,36 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K11" s="14"/>
       <c r="O11">
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T11">
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:23">
@@ -1632,36 +2167,36 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K12" s="14"/>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T12">
         <v>5</v>
       </c>
       <c r="U12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:23">
@@ -1669,36 +2204,36 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K13" s="14"/>
       <c r="O13">
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
       <c r="U13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:23">
@@ -1706,36 +2241,36 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K14" s="14"/>
       <c r="O14">
         <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T14">
         <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="W14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:23">
@@ -1743,36 +2278,36 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K15" s="14"/>
       <c r="O15">
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T15">
         <v>8</v>
       </c>
       <c r="U15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -1780,36 +2315,36 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K16" s="14"/>
       <c r="O16">
         <v>9</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T16">
         <v>9</v>
       </c>
       <c r="U16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:23">
@@ -1817,14 +2352,14 @@
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="9" t="e">
         <v>#N/A</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J17" s="14" t="e">
         <v>#N/A</v>
@@ -1834,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R17" t="e">
         <v>#N/A</v>
@@ -1843,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="U17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W17" t="e">
         <v>#N/A</v>
@@ -1854,36 +2389,36 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K18" s="14"/>
       <c r="O18">
         <v>11</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T18">
         <v>11</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:23">
@@ -1891,36 +2426,36 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K19" s="14"/>
       <c r="O19">
         <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T19">
         <v>12</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="W19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:23">
@@ -1928,36 +2463,36 @@
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K20" s="14"/>
       <c r="O20">
         <v>13</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T20">
         <v>13</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:23">
@@ -1965,36 +2500,36 @@
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K21" s="14"/>
       <c r="O21">
         <v>14</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T21">
         <v>14</v>
       </c>
       <c r="U21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:23">
@@ -2002,14 +2537,14 @@
         <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="9" t="e">
         <v>#N/A</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J22" s="14" t="e">
         <v>#N/A</v>
@@ -2019,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R22" t="e">
         <v>#N/A</v>
@@ -2028,7 +2563,7 @@
         <v>15</v>
       </c>
       <c r="U22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="W22" t="e">
         <v>#N/A</v>
@@ -2039,14 +2574,14 @@
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="9" t="e">
         <v>#N/A</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J23" s="14" t="e">
         <v>#N/A</v>
@@ -2056,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R23" t="e">
         <v>#N/A</v>
@@ -2065,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W23" t="e">
         <v>#N/A</v>
@@ -2076,36 +2611,36 @@
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K24" s="14"/>
       <c r="O24">
         <v>17</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T24">
         <v>17</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:23">
@@ -2113,36 +2648,36 @@
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K25" s="14"/>
       <c r="O25">
         <v>18</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T25">
         <v>18</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="W25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:23">
@@ -2150,36 +2685,36 @@
         <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K26" s="14"/>
       <c r="O26">
         <v>19</v>
       </c>
       <c r="P26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T26">
         <v>19</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:23">
@@ -2187,36 +2722,36 @@
         <v>20</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K27" s="14"/>
       <c r="O27">
         <v>20</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T27">
         <v>20</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:23">
@@ -2224,48 +2759,48 @@
         <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K28" s="14"/>
       <c r="O28">
         <v>21</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T28">
         <v>21</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:23">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <f>COUNTA(C8:C28)</f>
         <v>21</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <f>COUNTIF($E$8:$E$28,D30)</f>
@@ -2274,7 +2809,7 @@
     </row>
     <row r="31" spans="2:23">
       <c r="D31" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <f>COUNTIF($E$8:$E$28,D31)</f>
@@ -2304,795 +2839,858 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:U32"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B2:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="21" width="9" style="15" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="15"/>
+    <col min="1" max="30" width="9" style="15" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
-      <c r="D2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="J2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="2">
+    <row r="2" spans="2:23">
+      <c r="D2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="J2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2">
         <v>45318</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="P2" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="I3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="14">
+        <v>36</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14">
         <f>COUNTIF($J$8:$J$28,I3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="14">
+      <c r="N3" s="14">
         <f>COUNTIF($J$8:$J$28,K3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
       <c r="P3" s="14">
         <v>0</v>
       </c>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
       <c r="R3" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:21">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
       <c r="I4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="14">
+        <v>37</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14">
         <f>COUNTIF($J$8:$J$28,I4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="14">
+      <c r="N4" s="14">
         <f>COUNTIF($J$8:$J$28,K4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
       <c r="P4" s="14">
         <v>0</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
       <c r="R4" s="14">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23">
       <c r="I5" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14">
         <f>COUNTIF($J$8:$J$28,I5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="14">
+      <c r="N5" s="14">
         <f>COUNTIF($J$8:$J$28,K5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
       <c r="P5" s="14">
         <v>0</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
       <c r="R5" s="14">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
+      <c r="S5" s="14"/>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
       <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="U6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21">
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21">
+        <v>40</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="N8" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
-      <c r="U8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="W8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
-      <c r="U9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="W9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="8">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="N10" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
-      <c r="U10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="W10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="U11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="W11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12" s="8">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
-      <c r="U12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="W12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
-      <c r="U13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21">
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="W13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" s="8">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="N14" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
-      <c r="U14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="W14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
       <c r="B15" s="8">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="U15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="W15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
       <c r="B16" s="8">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="U16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="W16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
       <c r="B17" s="8">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="9" t="e">
         <v>#N/A</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="14" t="e">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
-      <c r="U17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="W17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
       <c r="B18" s="8">
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="U18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="W18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
       <c r="B19" s="8">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="2:21">
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="2:23">
       <c r="B20" s="8">
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="2:21">
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="2:23">
       <c r="B21" s="8">
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="2:21">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="2:23">
       <c r="B22" s="8">
         <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="9" t="e">
         <v>#N/A</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
-      <c r="L22" s="14" t="e">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="2:21">
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="2:23">
       <c r="B23" s="8">
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="9" t="e">
         <v>#N/A</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="14" t="e">
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="2:21">
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" spans="2:23">
       <c r="B24" s="8">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
-      <c r="L24" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="N24" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="2:21">
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="2:23">
       <c r="B25" s="8">
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="2:21">
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="2:23">
       <c r="B26" s="8">
         <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="N26" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
-    </row>
-    <row r="27" spans="2:21">
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="2:23">
       <c r="B27" s="8">
         <v>20</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-    </row>
-    <row r="28" spans="2:21">
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="2:23">
       <c r="B28" s="10">
         <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="N28" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
-    </row>
-    <row r="30" spans="2:21">
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="30" spans="2:23">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <f>COUNTA(C8:C28)</f>
         <v>21</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <f>COUNTIF($E$8:$E$28,D30)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:23">
       <c r="D31" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <f>COUNTIF($E$8:$E$28,D31)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:23">
       <c r="D32" s="13" t="e">
         <v>#N/A</v>
       </c>
@@ -3108,4 +3706,1430 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B2:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="15" max="16" width="9" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ref="M26:M38" si="0">VLOOKUP(J26,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <v>A001</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q42" ca="1" si="1">RAND()</f>
+        <v>0.72941505242864402</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" ref="R26:R42" ca="1" si="2">IF(Q26&lt;0.12,"#N/A", IF(Q26&lt;0.7, "OK","NG"))</f>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>A002</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78091883077578994</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>A003</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71368882562319502</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>A004</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21435075336853693</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="J30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>A005</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35224832944105366</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>A006</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8012326924686699</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>A007</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54421008384593339</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="10:18">
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>A008</v>
+      </c>
+      <c r="N33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97126411044627781</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="34" spans="10:18">
+      <c r="J34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>A009</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59767250871015887</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="10:18">
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>A010</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70927338673699314</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="36" spans="10:18">
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>A011</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94236731684822495</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="37" spans="10:18">
+      <c r="J37" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>A012</v>
+      </c>
+      <c r="N37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8887649782572522</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="38" spans="10:18">
+      <c r="J38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>A013</v>
+      </c>
+      <c r="N38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21231008942775675</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="10:18">
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="str">
+        <f>VLOOKUP(J39,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <v>A014</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35716505541580723</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="10:18">
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" t="str">
+        <f>VLOOKUP(J40,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <v>A015</v>
+      </c>
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70506695807678366</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="41" spans="10:18">
+      <c r="J41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="str">
+        <f>VLOOKUP(J41,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <v>A016</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9760436053090764E-2</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="10:18">
+      <c r="K42" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" t="e">
+        <f>VLOOKUP(J42,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N42" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68955343227081478</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:D3">
+    <sortState ref="B4:D20">
+      <sortCondition ref="C3"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="B6:V27"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="6" spans="2:22">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s">
+        <v>52</v>
+      </c>
+      <c r="V23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="U24" t="s">
+        <v>53</v>
+      </c>
+      <c r="V24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="U25" t="s">
+        <v>54</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="U27" t="s">
+        <v>56</v>
+      </c>
+      <c r="V27">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B4:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7">
+      <c r="B4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="16">
+        <v>45309</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="16">
+        <v>45309</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="16">
+        <v>45309</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="16">
+        <v>45309</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="16">
+        <v>45309</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="16">
+        <v>45309</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="16">
+        <v>45313</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="16">
+        <v>45313</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="16">
+        <v>45313</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="16">
+        <v>45313</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="16">
+        <v>45313</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="16">
+        <v>45313</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="15">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_test/back/myworkbook.xlsx
+++ b/excel_test/back/myworkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="6"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="input_data" sheetId="7" r:id="rId7"/>
     <sheet name="TestData" sheetId="8" r:id="rId8"/>
     <sheet name="DailyTest" sheetId="9" r:id="rId9"/>
-    <sheet name="ref_csv" sheetId="11" r:id="rId10"/>
+    <sheet name="ref_csv" sheetId="10" r:id="rId10"/>
+    <sheet name="Write" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">input_data!$B$3:$D$3</definedName>
@@ -27,25 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="data_from_df" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr codePage="1250" sourceFile="C:\Users\OK\source\repos\Repository4_python\excel_test\data_from_df.csv" tab="0" comma="1">
-      <textFields count="6">
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="109">
   <si>
     <t>N4-O6</t>
   </si>
@@ -327,19 +311,12 @@
   </si>
   <si>
     <t>カテゴリ2</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>カテゴリ3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■テスト表</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>■ref_csv</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>0</t>
@@ -546,10 +523,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,10 +538,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_from_df" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,305 +964,701 @@
   <dimension ref="K6:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
-    <col min="15" max="15" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="3.5" style="16" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="16" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="16" customWidth="1"/>
+    <col min="15" max="15" width="5.625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="11:16">
-      <c r="K6" s="15" t="s">
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="11:16">
+      <c r="L7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="11:16">
+      <c r="K8" s="15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="11:16">
-      <c r="L7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="11:16">
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="11:16">
+      <c r="K9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="11:16">
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="11:16">
+      <c r="K10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="11:16">
-      <c r="K10" s="18" t="s">
+      <c r="L10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="11:16">
+      <c r="K11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="11:16">
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="11:16">
+      <c r="K12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="11:16">
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="11:16">
+      <c r="K13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="11:16">
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="11:16">
+      <c r="K14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="11:16">
-      <c r="K14" s="18" t="s">
+      <c r="L14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="11:16">
+      <c r="K15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="11:16">
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="11:16">
+      <c r="K16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="11:16">
-      <c r="K16" s="18" t="s">
+      <c r="L16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="11:16">
+      <c r="K17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="11:16">
-      <c r="K17" s="18" t="s">
+      <c r="L17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="11:16">
+      <c r="K18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="11:16">
-      <c r="K18" s="18" t="s">
+      <c r="L18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="11:16">
+      <c r="K19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="11:16">
-      <c r="K19" s="18" t="s">
+      <c r="L19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="11:16">
+      <c r="K20" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="11:16">
-      <c r="K20" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="18" t="s">
+      <c r="N20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="15" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4">
+        <v>45309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5">
+        <v>45309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6">
+        <v>45309</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7">
+        <v>45309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8">
+        <v>45309</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9">
+        <v>45309</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10">
+        <v>45310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11">
+        <v>45310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12">
+        <v>45310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13">
+        <v>45310</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14">
+        <v>45310</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15">
+        <v>45310</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16">
+        <v>45313</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17">
+        <v>45313</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18">
+        <v>45313</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19">
+        <v>45313</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20">
+        <v>45313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21">
+        <v>45313</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1304,7 +1673,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1345,7 +1714,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:7">
@@ -1374,7 +1743,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>45311</v>
       </c>
       <c r="C8" t="s">
@@ -1394,7 +1763,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>45311</v>
       </c>
       <c r="C9" t="s">
@@ -1414,7 +1783,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>45311</v>
       </c>
       <c r="C10" t="s">
@@ -1434,7 +1803,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>45311</v>
       </c>
       <c r="C11" t="s">
@@ -1454,7 +1823,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>45311</v>
       </c>
       <c r="C12" t="s">
@@ -1474,7 +1843,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="16">
+      <c r="B13" s="17">
         <v>45311</v>
       </c>
       <c r="C13" t="s">
@@ -1510,8 +1879,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="4" width="9.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:6">
@@ -1900,7 +2269,7 @@
       <c r="B38" s="1">
         <v>45619</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="18">
         <f>COUNTIF(C8:C19,B38)</f>
         <v>1</v>
       </c>
@@ -2840,7 +3209,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:W32"/>
+  <dimension ref="B2:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
@@ -2848,11 +3217,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="30" width="9" style="15" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="15"/>
+    <col min="1" max="35" width="9" style="16" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:24">
       <c r="D2" s="19" t="s">
         <v>35</v>
       </c>
@@ -2863,14 +3232,14 @@
       <c r="K2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="2">
+      <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="2">
         <v>45318</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>63</v>
@@ -2884,8 +3253,11 @@
       <c r="T2" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="2:23">
+      <c r="U2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="I3" s="13" t="s">
@@ -2893,105 +3265,109 @@
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="14">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14">
         <f>COUNTIF($J$8:$J$28,I3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14">
+      <c r="O3" s="14">
         <f>COUNTIF($J$8:$J$28,K3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="14">
-        <v>0</v>
-      </c>
       <c r="Q3" s="14">
         <v>0</v>
       </c>
       <c r="R3" s="14">
         <v>0</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14">
+      <c r="S3" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:23">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
       <c r="I4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="14">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14">
         <f>COUNTIF($J$8:$J$28,I4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14">
+      <c r="O4" s="14">
         <f>COUNTIF($J$8:$J$28,K4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="14">
-        <v>0</v>
-      </c>
       <c r="Q4" s="14">
         <v>0</v>
       </c>
       <c r="R4" s="14">
         <v>0</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14">
+      <c r="S4" s="14">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:24">
       <c r="I5" s="13" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="14">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14">
         <f>COUNTIF($J$8:$J$28,I5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="14">
+      <c r="O5" s="14">
         <f>COUNTIF($J$8:$J$28,K5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="14">
-        <v>0</v>
-      </c>
       <c r="Q5" s="14">
         <v>0</v>
       </c>
       <c r="R5" s="14">
         <v>0</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14">
+      <c r="S5" s="14">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:24">
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
-      <c r="W6" t="s">
+      <c r="U6" s="14"/>
+      <c r="X6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:24">
       <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
@@ -3017,16 +3393,16 @@
         <v>40</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>40</v>
@@ -3040,11 +3416,14 @@
       <c r="T7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W7" t="s">
+      <c r="U7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:24">
       <c r="B8" s="8">
         <v>1</v>
       </c>
@@ -3062,20 +3441,21 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="W8" t="s">
+      <c r="U8" s="14"/>
+      <c r="X8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:24">
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -3093,20 +3473,21 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
-      <c r="W9" t="s">
+      <c r="U9" s="14"/>
+      <c r="X9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:24">
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -3124,20 +3505,21 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="W10" t="s">
+      <c r="U10" s="14"/>
+      <c r="X10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:24">
       <c r="B11" s="8">
         <v>4</v>
       </c>
@@ -3155,20 +3537,21 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="W11" t="s">
+      <c r="U11" s="14"/>
+      <c r="X11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:24">
       <c r="B12" s="8">
         <v>5</v>
       </c>
@@ -3186,20 +3569,21 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="W12" t="s">
+      <c r="U12" s="14"/>
+      <c r="X12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:24">
       <c r="B13" s="8">
         <v>6</v>
       </c>
@@ -3217,20 +3601,21 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="W13" t="s">
+      <c r="U13" s="14"/>
+      <c r="X13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:24">
       <c r="B14" s="8">
         <v>7</v>
       </c>
@@ -3248,20 +3633,21 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="W14" t="s">
+      <c r="U14" s="14"/>
+      <c r="X14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:24">
       <c r="B15" s="8">
         <v>8</v>
       </c>
@@ -3279,20 +3665,21 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="W15" t="s">
+      <c r="U15" s="14"/>
+      <c r="X15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:24">
       <c r="B16" s="8">
         <v>9</v>
       </c>
@@ -3310,20 +3697,21 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="W16" t="s">
+      <c r="U16" s="14"/>
+      <c r="X16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:24">
       <c r="B17" s="8">
         <v>10</v>
       </c>
@@ -3341,20 +3729,21 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="14" t="e">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="W17" t="s">
+      <c r="U17" s="14"/>
+      <c r="X17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:24">
       <c r="B18" s="8">
         <v>11</v>
       </c>
@@ -3372,20 +3761,21 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="W18" t="s">
+      <c r="U18" s="14"/>
+      <c r="X18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:24">
       <c r="B19" s="8">
         <v>12</v>
       </c>
@@ -3403,17 +3793,18 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="8">
         <v>13</v>
       </c>
@@ -3431,17 +3822,18 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="U20" s="14"/>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="8">
         <v>14</v>
       </c>
@@ -3459,17 +3851,18 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" s="8">
         <v>15</v>
       </c>
@@ -3487,17 +3880,18 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="14" t="e">
+      <c r="N22" s="14"/>
+      <c r="O22" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
-    </row>
-    <row r="23" spans="2:23">
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="8">
         <v>16</v>
       </c>
@@ -3515,17 +3909,18 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="14" t="e">
+      <c r="N23" s="14"/>
+      <c r="O23" s="14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-    </row>
-    <row r="24" spans="2:23">
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24" s="8">
         <v>17</v>
       </c>
@@ -3543,17 +3938,18 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="8">
         <v>18</v>
       </c>
@@ -3571,17 +3967,18 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
-    </row>
-    <row r="26" spans="2:23">
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="8">
         <v>19</v>
       </c>
@@ -3599,17 +3996,18 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-    </row>
-    <row r="27" spans="2:23">
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="8">
         <v>20</v>
       </c>
@@ -3627,17 +4025,18 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-    </row>
-    <row r="28" spans="2:23">
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28" s="10">
         <v>21</v>
       </c>
@@ -3655,17 +4054,18 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="U28" s="14"/>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -3681,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:24">
       <c r="D31" s="13" t="s">
         <v>37</v>
       </c>
@@ -3690,7 +4090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:23">
+    <row r="32" spans="2:24">
       <c r="D32" s="13" t="e">
         <v>#N/A</v>
       </c>
@@ -3713,13 +4113,13 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="15" max="16" width="9" style="15" customWidth="1"/>
+    <col min="15" max="16" width="9" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -3961,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ref="M26:M38" si="0">VLOOKUP(J26,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <f t="shared" ref="M26:M42" si="0">VLOOKUP(J26,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
         <v>A001</v>
       </c>
       <c r="N26" t="s">
@@ -3969,7 +4369,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ref="Q26:Q42" ca="1" si="1">RAND()</f>
-        <v>0.72941505242864402</v>
+        <v>0.97567429433077235</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" ref="R26:R42" ca="1" si="2">IF(Q26&lt;0.12,"#N/A", IF(Q26&lt;0.7, "OK","NG"))</f>
@@ -3995,11 +4395,11 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78091883077578994</v>
+        <v>0.29988156461467863</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -4021,11 +4421,11 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71368882562319502</v>
+        <v>0.42203190529200096</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -4047,7 +4447,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21435075336853693</v>
+        <v>0.39782788984015727</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4073,11 +4473,11 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35224832944105366</v>
+        <v>0.10238051843757612</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -4099,11 +4499,11 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8012326924686699</v>
+        <v>0.23305807607738549</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="32" spans="2:18">
@@ -4125,11 +4525,11 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54421008384593339</v>
+        <v>0.1190754502115654</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="10:18">
@@ -4151,11 +4551,11 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97126411044627781</v>
+        <v>0.33475157324804261</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="34" spans="10:18">
@@ -4177,11 +4577,11 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59767250871015887</v>
+        <v>2.2714443450593258E-3</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="10:18">
@@ -4203,11 +4603,11 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70927338673699314</v>
+        <v>0.48446238222629789</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="36" spans="10:18">
@@ -4229,7 +4629,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94236731684822495</v>
+        <v>0.7663539207882446</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4255,11 +4655,11 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8887649782572522</v>
+        <v>0.27693510589527315</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="38" spans="10:18">
@@ -4281,11 +4681,11 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21231008942775675</v>
+        <v>1.9981909338488535E-2</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="10:18">
@@ -4299,7 +4699,7 @@
         <v>37</v>
       </c>
       <c r="M39" t="str">
-        <f>VLOOKUP(J39,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>A014</v>
       </c>
       <c r="N39" t="s">
@@ -4307,11 +4707,11 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35716505541580723</v>
+        <v>0.70142403923260499</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>NG</v>
       </c>
     </row>
     <row r="40" spans="10:18">
@@ -4325,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="M40" t="str">
-        <f>VLOOKUP(J40,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>A015</v>
       </c>
       <c r="N40" t="s">
@@ -4333,7 +4733,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70506695807678366</v>
+        <v>0.90376116863476419</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4351,7 +4751,7 @@
         <v>37</v>
       </c>
       <c r="M41" t="str">
-        <f>VLOOKUP(J41,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>A016</v>
       </c>
       <c r="N41" t="s">
@@ -4359,11 +4759,11 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9760436053090764E-2</v>
+        <v>0.41520535020842964</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="42" spans="10:18">
@@ -4374,7 +4774,7 @@
         <v>89</v>
       </c>
       <c r="M42" t="e">
-        <f>VLOOKUP(J42,$B$3:$D$20,MATCH("ID",$B$3:$D$3,0),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="N42" t="s">
@@ -4382,7 +4782,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68955343227081478</v>
+        <v>0.16620497788248301</v>
       </c>
       <c r="R42" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4729,402 +5129,397 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B4:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="15" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>45309</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>45309</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>45309</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>45309</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9">
         <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>45309</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>45309</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>45310</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="16">
+      <c r="B13" s="17">
         <v>45310</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="16">
+      <c r="B14" s="17">
         <v>45310</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="16">
+      <c r="B15" s="17">
         <v>45310</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="16">
+      <c r="B16" s="17">
         <v>45310</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="16">
+      <c r="B17" s="17">
         <v>45310</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="16">
+      <c r="B18" s="17">
         <v>45313</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="16">
+      <c r="B19" s="17">
         <v>45313</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="16">
+      <c r="B20" s="17">
         <v>45313</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="16">
+      <c r="B21" s="17">
         <v>45313</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="16">
+      <c r="B22" s="17">
         <v>45313</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="16">
+      <c r="B23" s="17">
         <v>45313</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23">
         <v>5</v>
       </c>
     </row>

--- a/excel_test/back/myworkbook.xlsx
+++ b/excel_test/back/myworkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" activeTab="10"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="20175" windowHeight="9675" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DailyTest" sheetId="9" r:id="rId9"/>
     <sheet name="ref_csv" sheetId="10" r:id="rId10"/>
     <sheet name="Write" sheetId="11" r:id="rId11"/>
+    <sheet name="WriteDF" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">input_data!$B$3:$D$3</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="109">
   <si>
     <t>N4-O6</t>
   </si>
@@ -1268,15 +1269,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:H21"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="C3:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="18.25" style="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:9">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -1295,9 +1300,12 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="17">
         <v>45309</v>
       </c>
       <c r="D4" t="s">
@@ -1315,9 +1323,12 @@
       <c r="H4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5">
+      <c r="I4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="17">
         <v>45309</v>
       </c>
       <c r="D5" t="s">
@@ -1335,9 +1346,12 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="17">
         <v>45309</v>
       </c>
       <c r="D6" t="s">
@@ -1355,9 +1369,12 @@
       <c r="H6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="17">
         <v>45309</v>
       </c>
       <c r="D7" t="s">
@@ -1375,9 +1392,12 @@
       <c r="H7">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8">
+      <c r="I7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="17">
         <v>45309</v>
       </c>
       <c r="D8" t="s">
@@ -1395,9 +1415,12 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9">
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="17">
         <v>45309</v>
       </c>
       <c r="D9" t="s">
@@ -1415,9 +1438,12 @@
       <c r="H9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="17">
         <v>45310</v>
       </c>
       <c r="D10" t="s">
@@ -1435,9 +1461,12 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="17">
         <v>45310</v>
       </c>
       <c r="D11" t="s">
@@ -1455,9 +1484,12 @@
       <c r="H11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="17">
         <v>45310</v>
       </c>
       <c r="D12" t="s">
@@ -1475,9 +1507,12 @@
       <c r="H12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13">
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="17">
         <v>45310</v>
       </c>
       <c r="D13" t="s">
@@ -1495,9 +1530,12 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14">
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="17">
         <v>45310</v>
       </c>
       <c r="D14" t="s">
@@ -1515,9 +1553,12 @@
       <c r="H14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15">
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="17">
         <v>45310</v>
       </c>
       <c r="D15" t="s">
@@ -1535,9 +1576,12 @@
       <c r="H15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16">
+      <c r="I15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="17">
         <v>45313</v>
       </c>
       <c r="D16" t="s">
@@ -1555,9 +1599,12 @@
       <c r="H16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17">
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="17">
         <v>45313</v>
       </c>
       <c r="D17" t="s">
@@ -1575,9 +1622,12 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="17">
         <v>45313</v>
       </c>
       <c r="D18" t="s">
@@ -1595,9 +1645,12 @@
       <c r="H18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19">
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="17">
         <v>45313</v>
       </c>
       <c r="D19" t="s">
@@ -1615,9 +1668,12 @@
       <c r="H19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20">
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="17">
         <v>45313</v>
       </c>
       <c r="D20" t="s">
@@ -1635,9 +1691,12 @@
       <c r="H20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21">
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="17">
         <v>45313</v>
       </c>
       <c r="D21" t="s">
@@ -1655,8 +1714,27 @@
       <c r="H21">
         <v>5</v>
       </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3217,8 +3295,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="35" width="9" style="16" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="16"/>
+    <col min="1" max="37" width="9" style="16" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
@@ -4369,11 +4447,11 @@
       </c>
       <c r="Q26">
         <f t="shared" ref="Q26:Q42" ca="1" si="1">RAND()</f>
-        <v>0.97567429433077235</v>
+        <v>8.7821179024435647E-2</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" ref="R26:R42" ca="1" si="2">IF(Q26&lt;0.12,"#N/A", IF(Q26&lt;0.7, "OK","NG"))</f>
-        <v>NG</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -4395,7 +4473,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29988156461467863</v>
+        <v>0.34646512559900078</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4421,11 +4499,11 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42203190529200096</v>
+        <v>2.8967547655241344E-2</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -4447,7 +4525,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39782788984015727</v>
+        <v>0.13034429099313627</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4473,11 +4551,11 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10238051843757612</v>
+        <v>0.48091255467414196</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -4499,7 +4577,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23305807607738549</v>
+        <v>0.4108863667621534</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4525,11 +4603,11 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1190754502115654</v>
+        <v>0.99114370460216006</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>NG</v>
       </c>
     </row>
     <row r="33" spans="10:18">
@@ -4551,7 +4629,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33475157324804261</v>
+        <v>0.31177456552815119</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4577,11 +4655,11 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2714443450593258E-3</v>
+        <v>0.90696356153600588</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>NG</v>
       </c>
     </row>
     <row r="35" spans="10:18">
@@ -4603,11 +4681,11 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48446238222629789</v>
+        <v>1.211587638919509E-2</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="10:18">
@@ -4629,7 +4707,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7663539207882446</v>
+        <v>0.94563818704099667</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4655,7 +4733,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27693510589527315</v>
+        <v>0.24596907873450791</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4681,11 +4759,11 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9981909338488535E-2</v>
+        <v>0.14898111045773499</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="39" spans="10:18">
@@ -4707,11 +4785,11 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70142403923260499</v>
+        <v>0.64359179253203402</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="40" spans="10:18">
@@ -4733,11 +4811,11 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90376116863476419</v>
+        <v>0.33174397852696225</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="41" spans="10:18">
@@ -4759,7 +4837,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41520535020842964</v>
+        <v>0.32886673334615724</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4782,11 +4860,11 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16620497788248301</v>
+        <v>0.87788015517409712</v>
       </c>
       <c r="R42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OK</v>
+        <v>NG</v>
       </c>
     </row>
   </sheetData>
